--- a/dersler.xlsx
+++ b/dersler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EFE\PycharmProjects\DersTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86920BA-B794-47DD-BA06-B42D2BB381B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B8539E-8733-4BDD-82C2-E6EE9766A649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OgretimUyeleri" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="93">
   <si>
     <t>OgretimUyesi</t>
   </si>
@@ -91,9 +91,15 @@
     <t>Dersler</t>
   </si>
   <si>
+    <t>Sinif</t>
+  </si>
+  <si>
     <t>İktisada Giriş</t>
   </si>
   <si>
+    <t>1. Sınıf</t>
+  </si>
+  <si>
     <t>Genel İşletme</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>Muhasebe II</t>
   </si>
   <si>
+    <t>2. Sınıf</t>
+  </si>
+  <si>
     <t>Mikro İktisat</t>
   </si>
   <si>
@@ -121,6 +130,9 @@
     <t>Stratejik Yönetim</t>
   </si>
   <si>
+    <t>3. Sınıf</t>
+  </si>
+  <si>
     <t>Uluslararası İşletme</t>
   </si>
   <si>
@@ -155,6 +167,9 @@
   </si>
   <si>
     <t>Satınalma Yönetimi</t>
+  </si>
+  <si>
+    <t>4. Sınıf</t>
   </si>
   <si>
     <t>Davranışsal Finans</t>
@@ -651,9 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -772,220 +785,341 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -997,135 +1131,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A2:A25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1135,360 +1267,483 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/dersler.xlsx
+++ b/dersler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EFE\PycharmProjects\DersTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B8539E-8733-4BDD-82C2-E6EE9766A649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2061CE5-7261-4DD3-9413-9BEB8057B789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OgretimUyeleri" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>OgretimUyesi</t>
   </si>
   <si>
-    <t>Prof. Dr. Ahmet Yılmaz</t>
-  </si>
-  <si>
     <t>Prof. Dr. Ayşe Demir</t>
   </si>
   <si>
@@ -302,6 +299,9 @@
   </si>
   <si>
     <t>Ders</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Haydar Yalçın</t>
   </si>
 </sst>
 </file>
@@ -666,7 +666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -680,102 +682,102 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -796,330 +800,330 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1137,127 +1141,127 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1269,481 +1273,487 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
